--- a/GA/Slots.xlsx
+++ b/GA/Slots.xlsx
@@ -33,19 +33,19 @@
     <t>28/2/19 14:00:00</t>
   </si>
   <si>
-    <t>28/2/19 14:05:00</t>
-  </si>
-  <si>
-    <t>28/2/19 14:10:00</t>
-  </si>
-  <si>
     <t>28/2/19 14:15:00</t>
   </si>
   <si>
-    <t>28/2/19 14:20:00</t>
-  </si>
-  <si>
-    <t>28/2/19 14:25:00</t>
+    <t>28/2/19 14:03:00</t>
+  </si>
+  <si>
+    <t>28/2/19 14:06:00</t>
+  </si>
+  <si>
+    <t>28/2/19 14:09:00</t>
+  </si>
+  <si>
+    <t>28/2/19 14:12:00</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -403,7 +403,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -411,7 +411,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -427,7 +427,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/GA/Slots.xlsx
+++ b/GA/Slots.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Slots</t>
   </si>
@@ -33,19 +33,49 @@
     <t>28/2/19 14:00:00</t>
   </si>
   <si>
+    <t>28/2/19 14:06:00</t>
+  </si>
+  <si>
+    <t>28/2/19 13:42:00</t>
+  </si>
+  <si>
+    <t>28/2/19 13:48:00</t>
+  </si>
+  <si>
+    <t>28/2/19 13:54:00</t>
+  </si>
+  <si>
+    <t>28/2/19 13:45:00</t>
+  </si>
+  <si>
+    <t>28/2/19 13:51:00</t>
+  </si>
+  <si>
+    <t>28/2/19 13:57:00</t>
+  </si>
+  <si>
+    <t>28/2/19 14:03:00</t>
+  </si>
+  <si>
+    <t>28/2/19 14:09:00</t>
+  </si>
+  <si>
+    <t>28/2/19 14:12:00</t>
+  </si>
+  <si>
     <t>28/2/19 14:15:00</t>
   </si>
   <si>
-    <t>28/2/19 14:03:00</t>
-  </si>
-  <si>
-    <t>28/2/19 14:06:00</t>
-  </si>
-  <si>
-    <t>28/2/19 14:09:00</t>
-  </si>
-  <si>
-    <t>28/2/19 14:12:00</t>
+    <t>28/2/19 14:18:00</t>
+  </si>
+  <si>
+    <t>28/2/19 14:21:00</t>
+  </si>
+  <si>
+    <t>28/2/19 14:24:00</t>
+  </si>
+  <si>
+    <t>28/2/19 14:27:00</t>
   </si>
 </sst>
 </file>
@@ -367,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -395,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -403,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -419,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -427,7 +457,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -435,7 +465,87 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
